--- a/Benchmark/OEQ_Benchmark/counting.xlsx
+++ b/Benchmark/OEQ_Benchmark/counting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="226">
   <si>
     <t>Image</t>
   </si>
@@ -25,250 +25,250 @@
     <t>Reference_Answer</t>
   </si>
   <si>
-    <t>counting_0.png</t>
-  </si>
-  <si>
-    <t>counting_1.png</t>
-  </si>
-  <si>
-    <t>counting_2.png</t>
-  </si>
-  <si>
-    <t>counting_3.png</t>
-  </si>
-  <si>
-    <t>counting_4.png</t>
-  </si>
-  <si>
-    <t>counting_5.png</t>
-  </si>
-  <si>
-    <t>counting_6.png</t>
-  </si>
-  <si>
-    <t>counting_7.png</t>
-  </si>
-  <si>
-    <t>counting_8.png</t>
-  </si>
-  <si>
-    <t>counting_9.png</t>
-  </si>
-  <si>
-    <t>counting_10.png</t>
-  </si>
-  <si>
-    <t>counting_11.png</t>
-  </si>
-  <si>
-    <t>counting_12.png</t>
-  </si>
-  <si>
-    <t>counting_13.png</t>
-  </si>
-  <si>
-    <t>counting_14.png</t>
-  </si>
-  <si>
-    <t>counting_15.png</t>
-  </si>
-  <si>
-    <t>counting_16.png</t>
-  </si>
-  <si>
-    <t>counting_17.png</t>
-  </si>
-  <si>
-    <t>counting_18.png</t>
-  </si>
-  <si>
-    <t>counting_19.png</t>
-  </si>
-  <si>
-    <t>counting_20.png</t>
-  </si>
-  <si>
-    <t>counting_21.png</t>
-  </si>
-  <si>
-    <t>counting_22.png</t>
-  </si>
-  <si>
-    <t>counting_23.png</t>
-  </si>
-  <si>
-    <t>counting_24.png</t>
-  </si>
-  <si>
-    <t>counting_25.png</t>
-  </si>
-  <si>
-    <t>counting_26.png</t>
-  </si>
-  <si>
-    <t>counting_27.png</t>
-  </si>
-  <si>
-    <t>counting_28.png</t>
-  </si>
-  <si>
-    <t>counting_29.png</t>
-  </si>
-  <si>
-    <t>counting_30.png</t>
-  </si>
-  <si>
-    <t>counting_31.png</t>
-  </si>
-  <si>
-    <t>counting_32.png</t>
-  </si>
-  <si>
-    <t>counting_33.png</t>
-  </si>
-  <si>
-    <t>counting_34.png</t>
-  </si>
-  <si>
-    <t>counting_35.png</t>
-  </si>
-  <si>
-    <t>counting_36.png</t>
-  </si>
-  <si>
-    <t>counting_37.png</t>
-  </si>
-  <si>
-    <t>counting_38.png</t>
-  </si>
-  <si>
-    <t>counting_39.png</t>
-  </si>
-  <si>
-    <t>counting_40.png</t>
-  </si>
-  <si>
-    <t>counting_41.png</t>
-  </si>
-  <si>
-    <t>counting_42.png</t>
-  </si>
-  <si>
-    <t>counting_43.png</t>
-  </si>
-  <si>
-    <t>counting_44.png</t>
-  </si>
-  <si>
-    <t>counting_45.png</t>
-  </si>
-  <si>
-    <t>counting_46.png</t>
-  </si>
-  <si>
-    <t>counting_47.png</t>
-  </si>
-  <si>
-    <t>counting_48.png</t>
-  </si>
-  <si>
-    <t>counting_49.png</t>
-  </si>
-  <si>
-    <t>counting_50.png</t>
-  </si>
-  <si>
-    <t>counting_51.png</t>
-  </si>
-  <si>
-    <t>counting_52.png</t>
-  </si>
-  <si>
-    <t>counting_53.png</t>
-  </si>
-  <si>
-    <t>counting_54.png</t>
-  </si>
-  <si>
-    <t>counting_55.png</t>
-  </si>
-  <si>
-    <t>counting_56.png</t>
-  </si>
-  <si>
-    <t>counting_57.png</t>
-  </si>
-  <si>
-    <t>counting_58.png</t>
-  </si>
-  <si>
-    <t>counting_59.png</t>
-  </si>
-  <si>
-    <t>counting_60.png</t>
-  </si>
-  <si>
-    <t>counting_61.png</t>
-  </si>
-  <si>
-    <t>counting_62.png</t>
-  </si>
-  <si>
-    <t>counting_63.png</t>
-  </si>
-  <si>
-    <t>counting_64.png</t>
-  </si>
-  <si>
-    <t>counting_65.png</t>
-  </si>
-  <si>
-    <t>counting_66.png</t>
-  </si>
-  <si>
-    <t>counting_67.png</t>
-  </si>
-  <si>
-    <t>counting_68.png</t>
-  </si>
-  <si>
-    <t>counting_69.png</t>
-  </si>
-  <si>
-    <t>counting_70.png</t>
-  </si>
-  <si>
-    <t>counting_71.png</t>
-  </si>
-  <si>
-    <t>counting_72.png</t>
-  </si>
-  <si>
-    <t>counting_73.png</t>
-  </si>
-  <si>
-    <t>counting_74.png</t>
-  </si>
-  <si>
-    <t>counting_75.png</t>
-  </si>
-  <si>
-    <t>counting_76.png</t>
-  </si>
-  <si>
-    <t>counting_77.png</t>
-  </si>
-  <si>
-    <t>counting_78.png</t>
-  </si>
-  <si>
-    <t>counting_79.png</t>
-  </si>
-  <si>
-    <t>counting_80.png</t>
-  </si>
-  <si>
-    <t>counting_81.png</t>
+    <t>counting/counting_0.png</t>
+  </si>
+  <si>
+    <t>counting/counting_1.png</t>
+  </si>
+  <si>
+    <t>counting/counting_2.png</t>
+  </si>
+  <si>
+    <t>counting/counting_3.png</t>
+  </si>
+  <si>
+    <t>counting/counting_4.png</t>
+  </si>
+  <si>
+    <t>counting/counting_5.png</t>
+  </si>
+  <si>
+    <t>counting/counting_6.png</t>
+  </si>
+  <si>
+    <t>counting/counting_7.png</t>
+  </si>
+  <si>
+    <t>counting/counting_8.png</t>
+  </si>
+  <si>
+    <t>counting/counting_9.png</t>
+  </si>
+  <si>
+    <t>counting/counting_10.png</t>
+  </si>
+  <si>
+    <t>counting/counting_11.png</t>
+  </si>
+  <si>
+    <t>counting/counting_12.png</t>
+  </si>
+  <si>
+    <t>counting/counting_13.png</t>
+  </si>
+  <si>
+    <t>counting/counting_14.png</t>
+  </si>
+  <si>
+    <t>counting/counting_15.png</t>
+  </si>
+  <si>
+    <t>counting/counting_16.png</t>
+  </si>
+  <si>
+    <t>counting/counting_17.png</t>
+  </si>
+  <si>
+    <t>counting/counting_18.png</t>
+  </si>
+  <si>
+    <t>counting/counting_19.png</t>
+  </si>
+  <si>
+    <t>counting/counting_20.png</t>
+  </si>
+  <si>
+    <t>counting/counting_21.png</t>
+  </si>
+  <si>
+    <t>counting/counting_22.png</t>
+  </si>
+  <si>
+    <t>counting/counting_23.png</t>
+  </si>
+  <si>
+    <t>counting/counting_24.png</t>
+  </si>
+  <si>
+    <t>counting/counting_25.png</t>
+  </si>
+  <si>
+    <t>counting/counting_26.png</t>
+  </si>
+  <si>
+    <t>counting/counting_27.png</t>
+  </si>
+  <si>
+    <t>counting/counting_28.png</t>
+  </si>
+  <si>
+    <t>counting/counting_29.png</t>
+  </si>
+  <si>
+    <t>counting/counting_30.png</t>
+  </si>
+  <si>
+    <t>counting/counting_31.png</t>
+  </si>
+  <si>
+    <t>counting/counting_32.png</t>
+  </si>
+  <si>
+    <t>counting/counting_33.png</t>
+  </si>
+  <si>
+    <t>counting/counting_34.png</t>
+  </si>
+  <si>
+    <t>counting/counting_35.png</t>
+  </si>
+  <si>
+    <t>counting/counting_36.png</t>
+  </si>
+  <si>
+    <t>counting/counting_37.png</t>
+  </si>
+  <si>
+    <t>counting/counting_38.png</t>
+  </si>
+  <si>
+    <t>counting/counting_39.png</t>
+  </si>
+  <si>
+    <t>counting/counting_40.png</t>
+  </si>
+  <si>
+    <t>counting/counting_41.png</t>
+  </si>
+  <si>
+    <t>counting/counting_42.png</t>
+  </si>
+  <si>
+    <t>counting/counting_43.png</t>
+  </si>
+  <si>
+    <t>counting/counting_44.png</t>
+  </si>
+  <si>
+    <t>counting/counting_45.png</t>
+  </si>
+  <si>
+    <t>counting/counting_46.png</t>
+  </si>
+  <si>
+    <t>counting/counting_47.png</t>
+  </si>
+  <si>
+    <t>counting/counting_48.png</t>
+  </si>
+  <si>
+    <t>counting/counting_49.png</t>
+  </si>
+  <si>
+    <t>counting/counting_50.png</t>
+  </si>
+  <si>
+    <t>counting/counting_51.png</t>
+  </si>
+  <si>
+    <t>counting/counting_52.png</t>
+  </si>
+  <si>
+    <t>counting/counting_53.png</t>
+  </si>
+  <si>
+    <t>counting/counting_54.png</t>
+  </si>
+  <si>
+    <t>counting/counting_55.png</t>
+  </si>
+  <si>
+    <t>counting/counting_56.png</t>
+  </si>
+  <si>
+    <t>counting/counting_57.png</t>
+  </si>
+  <si>
+    <t>counting/counting_58.png</t>
+  </si>
+  <si>
+    <t>counting/counting_59.png</t>
+  </si>
+  <si>
+    <t>counting/counting_60.png</t>
+  </si>
+  <si>
+    <t>counting/counting_61.png</t>
+  </si>
+  <si>
+    <t>counting/counting_62.png</t>
+  </si>
+  <si>
+    <t>counting/counting_63.png</t>
+  </si>
+  <si>
+    <t>counting/counting_64.png</t>
+  </si>
+  <si>
+    <t>counting/counting_65.png</t>
+  </si>
+  <si>
+    <t>counting/counting_66.png</t>
+  </si>
+  <si>
+    <t>counting/counting_67.png</t>
+  </si>
+  <si>
+    <t>counting/counting_68.png</t>
+  </si>
+  <si>
+    <t>counting/counting_69.png</t>
+  </si>
+  <si>
+    <t>counting/counting_70.png</t>
+  </si>
+  <si>
+    <t>counting/counting_71.png</t>
+  </si>
+  <si>
+    <t>counting/counting_72.png</t>
+  </si>
+  <si>
+    <t>counting/counting_73.png</t>
+  </si>
+  <si>
+    <t>counting/counting_74.png</t>
+  </si>
+  <si>
+    <t>counting/counting_75.png</t>
+  </si>
+  <si>
+    <t>counting/counting_76.png</t>
+  </si>
+  <si>
+    <t>counting/counting_77.png</t>
+  </si>
+  <si>
+    <t>counting/counting_78.png</t>
+  </si>
+  <si>
+    <t>counting/counting_79.png</t>
+  </si>
+  <si>
+    <t>counting/counting_80.png</t>
+  </si>
+  <si>
+    <t>counting/counting_81.png</t>
   </si>
   <si>
     <t>How many glass jars are depicted in the picture?</t>
@@ -490,7 +490,7 @@
     <t>How many scissors are there in the picture?</t>
   </si>
   <si>
-    <t>How many cushions are depicted in the picture?</t>
+    <t>How many pillows are depicted in the picture?</t>
   </si>
   <si>
     <t>How many real books are there in the picture?</t>
@@ -662,6 +662,9 @@
   </si>
   <si>
     <t>How many pillows are visible in the picture?</t>
+  </si>
+  <si>
+    <t>4 and 5 both ok</t>
   </si>
   <si>
     <t>23 and 25 both ok</t>
@@ -1169,8 +1172,8 @@
       <c r="B11" t="s">
         <v>94</v>
       </c>
-      <c r="C11">
-        <v>4</v>
+      <c r="C11" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1588,7 +1591,7 @@
         <v>120</v>
       </c>
       <c r="C49" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1599,7 +1602,7 @@
         <v>121</v>
       </c>
       <c r="C50" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1731,7 +1734,7 @@
         <v>133</v>
       </c>
       <c r="C62" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1764,7 +1767,7 @@
         <v>136</v>
       </c>
       <c r="C65" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1775,7 +1778,7 @@
         <v>137</v>
       </c>
       <c r="C66" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1852,7 +1855,7 @@
         <v>143</v>
       </c>
       <c r="C73" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1918,7 +1921,7 @@
         <v>148</v>
       </c>
       <c r="C79" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2138,7 +2141,7 @@
         <v>167</v>
       </c>
       <c r="C99" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2237,7 +2240,7 @@
         <v>175</v>
       </c>
       <c r="C108" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2402,7 +2405,7 @@
         <v>189</v>
       </c>
       <c r="C123" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="124" spans="1:3">

--- a/Benchmark/OEQ_Benchmark/counting.xlsx
+++ b/Benchmark/OEQ_Benchmark/counting.xlsx
@@ -25,250 +25,250 @@
     <t>Reference_Answer</t>
   </si>
   <si>
-    <t>counting/counting_0.png</t>
-  </si>
-  <si>
-    <t>counting/counting_1.png</t>
-  </si>
-  <si>
-    <t>counting/counting_2.png</t>
-  </si>
-  <si>
-    <t>counting/counting_3.png</t>
-  </si>
-  <si>
-    <t>counting/counting_4.png</t>
-  </si>
-  <si>
-    <t>counting/counting_5.png</t>
-  </si>
-  <si>
-    <t>counting/counting_6.png</t>
-  </si>
-  <si>
-    <t>counting/counting_7.png</t>
-  </si>
-  <si>
-    <t>counting/counting_8.png</t>
-  </si>
-  <si>
-    <t>counting/counting_9.png</t>
-  </si>
-  <si>
-    <t>counting/counting_10.png</t>
-  </si>
-  <si>
-    <t>counting/counting_11.png</t>
-  </si>
-  <si>
-    <t>counting/counting_12.png</t>
-  </si>
-  <si>
-    <t>counting/counting_13.png</t>
-  </si>
-  <si>
-    <t>counting/counting_14.png</t>
-  </si>
-  <si>
-    <t>counting/counting_15.png</t>
-  </si>
-  <si>
-    <t>counting/counting_16.png</t>
-  </si>
-  <si>
-    <t>counting/counting_17.png</t>
-  </si>
-  <si>
-    <t>counting/counting_18.png</t>
-  </si>
-  <si>
-    <t>counting/counting_19.png</t>
-  </si>
-  <si>
-    <t>counting/counting_20.png</t>
-  </si>
-  <si>
-    <t>counting/counting_21.png</t>
-  </si>
-  <si>
-    <t>counting/counting_22.png</t>
-  </si>
-  <si>
-    <t>counting/counting_23.png</t>
-  </si>
-  <si>
-    <t>counting/counting_24.png</t>
-  </si>
-  <si>
-    <t>counting/counting_25.png</t>
-  </si>
-  <si>
-    <t>counting/counting_26.png</t>
-  </si>
-  <si>
-    <t>counting/counting_27.png</t>
-  </si>
-  <si>
-    <t>counting/counting_28.png</t>
-  </si>
-  <si>
-    <t>counting/counting_29.png</t>
-  </si>
-  <si>
-    <t>counting/counting_30.png</t>
-  </si>
-  <si>
-    <t>counting/counting_31.png</t>
-  </si>
-  <si>
-    <t>counting/counting_32.png</t>
-  </si>
-  <si>
-    <t>counting/counting_33.png</t>
-  </si>
-  <si>
-    <t>counting/counting_34.png</t>
-  </si>
-  <si>
-    <t>counting/counting_35.png</t>
-  </si>
-  <si>
-    <t>counting/counting_36.png</t>
-  </si>
-  <si>
-    <t>counting/counting_37.png</t>
-  </si>
-  <si>
-    <t>counting/counting_38.png</t>
-  </si>
-  <si>
-    <t>counting/counting_39.png</t>
-  </si>
-  <si>
-    <t>counting/counting_40.png</t>
-  </si>
-  <si>
-    <t>counting/counting_41.png</t>
-  </si>
-  <si>
-    <t>counting/counting_42.png</t>
-  </si>
-  <si>
-    <t>counting/counting_43.png</t>
-  </si>
-  <si>
-    <t>counting/counting_44.png</t>
-  </si>
-  <si>
-    <t>counting/counting_45.png</t>
-  </si>
-  <si>
-    <t>counting/counting_46.png</t>
-  </si>
-  <si>
-    <t>counting/counting_47.png</t>
-  </si>
-  <si>
-    <t>counting/counting_48.png</t>
-  </si>
-  <si>
-    <t>counting/counting_49.png</t>
-  </si>
-  <si>
-    <t>counting/counting_50.png</t>
-  </si>
-  <si>
-    <t>counting/counting_51.png</t>
-  </si>
-  <si>
-    <t>counting/counting_52.png</t>
-  </si>
-  <si>
-    <t>counting/counting_53.png</t>
-  </si>
-  <si>
-    <t>counting/counting_54.png</t>
-  </si>
-  <si>
-    <t>counting/counting_55.png</t>
-  </si>
-  <si>
-    <t>counting/counting_56.png</t>
-  </si>
-  <si>
-    <t>counting/counting_57.png</t>
-  </si>
-  <si>
-    <t>counting/counting_58.png</t>
-  </si>
-  <si>
-    <t>counting/counting_59.png</t>
-  </si>
-  <si>
-    <t>counting/counting_60.png</t>
-  </si>
-  <si>
-    <t>counting/counting_61.png</t>
-  </si>
-  <si>
-    <t>counting/counting_62.png</t>
-  </si>
-  <si>
-    <t>counting/counting_63.png</t>
-  </si>
-  <si>
-    <t>counting/counting_64.png</t>
-  </si>
-  <si>
-    <t>counting/counting_65.png</t>
-  </si>
-  <si>
-    <t>counting/counting_66.png</t>
-  </si>
-  <si>
-    <t>counting/counting_67.png</t>
-  </si>
-  <si>
-    <t>counting/counting_68.png</t>
-  </si>
-  <si>
-    <t>counting/counting_69.png</t>
-  </si>
-  <si>
-    <t>counting/counting_70.png</t>
-  </si>
-  <si>
-    <t>counting/counting_71.png</t>
-  </si>
-  <si>
-    <t>counting/counting_72.png</t>
-  </si>
-  <si>
-    <t>counting/counting_73.png</t>
-  </si>
-  <si>
-    <t>counting/counting_74.png</t>
-  </si>
-  <si>
-    <t>counting/counting_75.png</t>
-  </si>
-  <si>
-    <t>counting/counting_76.png</t>
-  </si>
-  <si>
-    <t>counting/counting_77.png</t>
-  </si>
-  <si>
-    <t>counting/counting_78.png</t>
-  </si>
-  <si>
-    <t>counting/counting_79.png</t>
-  </si>
-  <si>
-    <t>counting/counting_80.png</t>
-  </si>
-  <si>
-    <t>counting/counting_81.png</t>
+    <t>counting_0.png</t>
+  </si>
+  <si>
+    <t>counting_1.png</t>
+  </si>
+  <si>
+    <t>counting_2.png</t>
+  </si>
+  <si>
+    <t>counting_3.png</t>
+  </si>
+  <si>
+    <t>counting_4.png</t>
+  </si>
+  <si>
+    <t>counting_5.png</t>
+  </si>
+  <si>
+    <t>counting_6.png</t>
+  </si>
+  <si>
+    <t>counting_7.png</t>
+  </si>
+  <si>
+    <t>counting_8.png</t>
+  </si>
+  <si>
+    <t>counting_9.png</t>
+  </si>
+  <si>
+    <t>counting_10.png</t>
+  </si>
+  <si>
+    <t>counting_11.png</t>
+  </si>
+  <si>
+    <t>counting_12.png</t>
+  </si>
+  <si>
+    <t>counting_13.png</t>
+  </si>
+  <si>
+    <t>counting_14.png</t>
+  </si>
+  <si>
+    <t>counting_15.png</t>
+  </si>
+  <si>
+    <t>counting_16.png</t>
+  </si>
+  <si>
+    <t>counting_17.png</t>
+  </si>
+  <si>
+    <t>counting_18.png</t>
+  </si>
+  <si>
+    <t>counting_19.png</t>
+  </si>
+  <si>
+    <t>counting_20.png</t>
+  </si>
+  <si>
+    <t>counting_21.png</t>
+  </si>
+  <si>
+    <t>counting_22.png</t>
+  </si>
+  <si>
+    <t>counting_23.png</t>
+  </si>
+  <si>
+    <t>counting_24.png</t>
+  </si>
+  <si>
+    <t>counting_25.png</t>
+  </si>
+  <si>
+    <t>counting_26.png</t>
+  </si>
+  <si>
+    <t>counting_27.png</t>
+  </si>
+  <si>
+    <t>counting_28.png</t>
+  </si>
+  <si>
+    <t>counting_29.png</t>
+  </si>
+  <si>
+    <t>counting_30.png</t>
+  </si>
+  <si>
+    <t>counting_31.png</t>
+  </si>
+  <si>
+    <t>counting_32.png</t>
+  </si>
+  <si>
+    <t>counting_33.png</t>
+  </si>
+  <si>
+    <t>counting_34.png</t>
+  </si>
+  <si>
+    <t>counting_35.png</t>
+  </si>
+  <si>
+    <t>counting_36.png</t>
+  </si>
+  <si>
+    <t>counting_37.png</t>
+  </si>
+  <si>
+    <t>counting_38.png</t>
+  </si>
+  <si>
+    <t>counting_39.png</t>
+  </si>
+  <si>
+    <t>counting_40.png</t>
+  </si>
+  <si>
+    <t>counting_41.png</t>
+  </si>
+  <si>
+    <t>counting_42.png</t>
+  </si>
+  <si>
+    <t>counting_43.png</t>
+  </si>
+  <si>
+    <t>counting_44.png</t>
+  </si>
+  <si>
+    <t>counting_45.png</t>
+  </si>
+  <si>
+    <t>counting_46.png</t>
+  </si>
+  <si>
+    <t>counting_47.png</t>
+  </si>
+  <si>
+    <t>counting_48.png</t>
+  </si>
+  <si>
+    <t>counting_49.png</t>
+  </si>
+  <si>
+    <t>counting_50.png</t>
+  </si>
+  <si>
+    <t>counting_51.png</t>
+  </si>
+  <si>
+    <t>counting_52.png</t>
+  </si>
+  <si>
+    <t>counting_53.png</t>
+  </si>
+  <si>
+    <t>counting_54.png</t>
+  </si>
+  <si>
+    <t>counting_55.png</t>
+  </si>
+  <si>
+    <t>counting_56.png</t>
+  </si>
+  <si>
+    <t>counting_57.png</t>
+  </si>
+  <si>
+    <t>counting_58.png</t>
+  </si>
+  <si>
+    <t>counting_59.png</t>
+  </si>
+  <si>
+    <t>counting_60.png</t>
+  </si>
+  <si>
+    <t>counting_61.png</t>
+  </si>
+  <si>
+    <t>counting_62.png</t>
+  </si>
+  <si>
+    <t>counting_63.png</t>
+  </si>
+  <si>
+    <t>counting_64.png</t>
+  </si>
+  <si>
+    <t>counting_65.png</t>
+  </si>
+  <si>
+    <t>counting_66.png</t>
+  </si>
+  <si>
+    <t>counting_67.png</t>
+  </si>
+  <si>
+    <t>counting_68.png</t>
+  </si>
+  <si>
+    <t>counting_69.png</t>
+  </si>
+  <si>
+    <t>counting_70.png</t>
+  </si>
+  <si>
+    <t>counting_71.png</t>
+  </si>
+  <si>
+    <t>counting_72.png</t>
+  </si>
+  <si>
+    <t>counting_73.png</t>
+  </si>
+  <si>
+    <t>counting_74.png</t>
+  </si>
+  <si>
+    <t>counting_75.png</t>
+  </si>
+  <si>
+    <t>counting_76.png</t>
+  </si>
+  <si>
+    <t>counting_77.png</t>
+  </si>
+  <si>
+    <t>counting_78.png</t>
+  </si>
+  <si>
+    <t>counting_79.png</t>
+  </si>
+  <si>
+    <t>counting_80.png</t>
+  </si>
+  <si>
+    <t>counting_81.png</t>
   </si>
   <si>
     <t>How many glass jars are depicted in the picture?</t>
